--- a/MyTeam/Content/templates/ReqReportT.xlsx
+++ b/MyTeam/Content/templates/ReqReportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\zhoumeng\Documents\visual studio 2013\Projects\MyRpt\MyRpt\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -83,10 +83,6 @@
       </rPr>
       <t>下发版本号</t>
     </r>
-  </si>
-  <si>
-    <t>关联业需编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -626,11 +622,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -640,22 +634,21 @@
     <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="4" customWidth="1"/>
-    <col min="15" max="21" width="12.5703125" style="4" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" style="4" customWidth="1"/>
-    <col min="25" max="27" width="15.42578125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="16.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="4" customWidth="1"/>
+    <col min="14" max="20" width="12.5703125" style="4" customWidth="1"/>
+    <col min="21" max="22" width="11.85546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" style="4" customWidth="1"/>
+    <col min="24" max="26" width="15.42578125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +676,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -695,7 +688,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -736,9 +729,6 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/MyTeam/Content/templates/ReqReportT.xlsx
+++ b/MyTeam/Content/templates/ReqReportT.xlsx
@@ -117,22 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求发起人/联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求受理人/联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发联系人/联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务测试人/联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -227,6 +211,22 @@
       </rPr>
       <t>备注</t>
     </r>
+  </si>
+  <si>
+    <t>需求发起人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求受理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务测试人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,7 +624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -637,18 +639,25 @@
     <col min="7" max="7" width="16.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="28" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="4" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="4" customWidth="1"/>
-    <col min="14" max="20" width="12.5703125" style="4" customWidth="1"/>
-    <col min="21" max="22" width="11.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="4" customWidth="1"/>
+    <col min="16" max="19" width="12.5703125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="13" style="4" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="4" customWidth="1"/>
     <col min="23" max="23" width="10.140625" style="4" customWidth="1"/>
-    <col min="24" max="26" width="15.42578125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" style="4" customWidth="1"/>
     <col min="27" max="27" width="15.140625" style="4" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,58 +686,58 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/MyTeam/Content/templates/ReqReportT.xlsx
+++ b/MyTeam/Content/templates/ReqReportT.xlsx
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研发评估工作量/人天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,13 +222,17 @@
   </si>
   <si>
     <t>业务测试人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -625,7 +625,7 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -686,16 +686,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -707,37 +707,37 @@
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
